--- a/DMSNewVSale_2025-12-05_20-31.xlsx
+++ b/DMSNewVSale_2025-12-05_20-31.xlsx
@@ -707,13 +707,16 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>2:10</t>
+    <t>2:9</t>
   </si>
   <si>
     <t>752.00</t>
   </si>
   <si>
-    <t>75.2000</t>
+    <t>112.8000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -4015,7 +4018,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>65</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4024,14 +4027,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4041,11 +4044,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>15</v>
@@ -4057,7 +4060,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4074,11 +4077,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4090,7 +4093,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4107,11 +4110,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>17</v>
@@ -4123,14 +4126,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4140,11 +4143,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>15</v>
@@ -4156,7 +4159,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4173,11 +4176,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4189,7 +4192,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4206,7 +4209,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4222,7 +4225,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4255,7 +4258,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4272,11 +4275,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>17</v>
@@ -4288,7 +4291,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4321,7 +4324,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4338,7 +4341,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4354,7 +4357,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4371,11 +4374,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4387,7 +4390,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4408,7 +4411,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>11</v>
@@ -4420,7 +4423,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4453,14 +4456,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4486,7 +4489,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4503,11 +4506,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4519,7 +4522,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4552,7 +4555,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4569,11 +4572,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>17</v>
@@ -4585,7 +4588,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4618,7 +4621,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4635,11 +4638,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>15</v>
@@ -4651,7 +4654,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4668,11 +4671,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>17</v>
@@ -4684,7 +4687,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4701,7 +4704,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4717,7 +4720,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4734,11 +4737,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4750,14 +4753,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4767,11 +4770,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>103</v>
@@ -4783,7 +4786,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4800,11 +4803,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4816,7 +4819,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4833,7 +4836,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4849,7 +4852,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4866,7 +4869,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4882,7 +4885,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4899,11 +4902,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -4915,14 +4918,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4948,7 +4951,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4965,7 +4968,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -4981,7 +4984,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4998,14 +5001,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5014,7 +5017,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5031,11 +5034,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>123</v>
@@ -5047,7 +5050,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5064,7 +5067,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5080,7 +5083,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5113,7 +5116,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5130,7 +5133,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5146,14 +5149,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5179,14 +5182,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5212,7 +5215,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5233,7 +5236,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>11</v>
@@ -5241,7 +5244,7 @@
     </row>
     <row r="117" ht="26.25" customHeight="1">
       <c r="N117" s="13">
-        <v>7038.1149999999998</v>
+        <v>7075.7150000000001</v>
       </c>
       <c r="O117" s="13"/>
       <c r="P117" s="13"/>
@@ -5249,7 +5252,7 @@
     </row>
     <row r="118" ht="16.5" customHeight="1">
       <c t="s" r="A118" s="14">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -5257,13 +5260,13 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c t="s" r="G118" s="15">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="16"/>
       <c t="s" r="K118" s="17">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L118" s="17"/>
       <c r="M118" s="17"/>
